--- a/Result/checksun/汽車工業.xlsx
+++ b/Result/checksun/汽車工業.xlsx
@@ -4779,7 +4779,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4967,7 +4971,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5155,7 +5163,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5343,7 +5355,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5527,7 +5543,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5715,7 +5735,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5903,7 +5927,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6091,7 +6119,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6279,7 +6311,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6467,7 +6503,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6655,7 +6695,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11161,7 +11205,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV55" t="inlineStr"/>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11351,7 +11399,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV56" t="inlineStr"/>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11541,7 +11593,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11731,7 +11787,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV58" t="inlineStr"/>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11921,7 +11981,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV59" t="inlineStr"/>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12111,7 +12175,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12301,7 +12369,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12491,7 +12563,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12681,7 +12757,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV63" t="inlineStr"/>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12871,7 +12951,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13061,7 +13145,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13251,7 +13339,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13441,7 +13533,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13631,7 +13727,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV68" t="inlineStr"/>
+      <c r="AV68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13821,7 +13921,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV69" t="inlineStr"/>
+      <c r="AV69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14011,7 +14115,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV70" t="inlineStr"/>
+      <c r="AV70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14201,7 +14309,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV71" t="inlineStr"/>
+      <c r="AV71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14399,7 +14511,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV72" t="inlineStr"/>
+      <c r="AV72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14597,7 +14713,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV73" t="inlineStr"/>
+      <c r="AV73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14795,7 +14915,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV74" t="inlineStr"/>
+      <c r="AV74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14985,7 +15109,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV75" t="inlineStr"/>
+      <c r="AV75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15175,7 +15303,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV76" t="inlineStr"/>
+      <c r="AV76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15365,7 +15497,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV77" t="inlineStr"/>
+      <c r="AV77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15555,7 +15691,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV78" t="inlineStr"/>
+      <c r="AV78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15745,7 +15885,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV79" t="inlineStr"/>
+      <c r="AV79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15935,7 +16079,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV80" t="inlineStr"/>
+      <c r="AV80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -16125,7 +16273,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV81" t="inlineStr"/>
+      <c r="AV81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -16315,7 +16467,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV82" t="inlineStr"/>
+      <c r="AV82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -16505,7 +16661,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV83" t="inlineStr"/>
+      <c r="AV83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -16695,7 +16855,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV84" t="inlineStr"/>
+      <c r="AV84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -16885,7 +17049,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV85" t="inlineStr"/>
+      <c r="AV85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -17075,7 +17243,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV86" t="inlineStr"/>
+      <c r="AV86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -17265,7 +17437,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV87" t="inlineStr"/>
+      <c r="AV87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -23919,7 +24095,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV121" t="inlineStr"/>
+      <c r="AV121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -24107,7 +24287,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV122" t="inlineStr"/>
+      <c r="AV122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -24295,7 +24479,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV123" t="inlineStr"/>
+      <c r="AV123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -24483,7 +24671,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV124" t="inlineStr"/>
+      <c r="AV124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -24671,7 +24863,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV125" t="inlineStr"/>
+      <c r="AV125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -24859,7 +25055,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV126" t="inlineStr"/>
+      <c r="AV126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -25047,7 +25247,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV127" t="inlineStr"/>
+      <c r="AV127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -25235,7 +25439,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV128" t="inlineStr"/>
+      <c r="AV128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -25423,7 +25631,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV129" t="inlineStr"/>
+      <c r="AV129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -25611,7 +25823,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV130" t="inlineStr"/>
+      <c r="AV130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -25799,7 +26015,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV131" t="inlineStr"/>
+      <c r="AV131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28101,7 +28321,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV143" t="inlineStr"/>
+      <c r="AV143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -28291,7 +28515,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV144" t="inlineStr"/>
+      <c r="AV144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -28481,7 +28709,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV145" t="inlineStr"/>
+      <c r="AV145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -28671,7 +28903,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV146" t="inlineStr"/>
+      <c r="AV146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -28861,7 +29097,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV147" t="inlineStr"/>
+      <c r="AV147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -29051,7 +29291,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV148" t="inlineStr"/>
+      <c r="AV148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -29241,7 +29485,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV149" t="inlineStr"/>
+      <c r="AV149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -29431,7 +29679,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV150" t="inlineStr"/>
+      <c r="AV150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -29621,7 +29873,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV151" t="inlineStr"/>
+      <c r="AV151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -29811,7 +30067,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV152" t="inlineStr"/>
+      <c r="AV152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -30001,7 +30261,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV153" t="inlineStr"/>
+      <c r="AV153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -34461,7 +34725,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV176" t="inlineStr"/>
+      <c r="AV176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -34651,7 +34919,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV177" t="inlineStr"/>
+      <c r="AV177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -34841,7 +35113,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV178" t="inlineStr"/>
+      <c r="AV178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -35031,7 +35307,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV179" t="inlineStr"/>
+      <c r="AV179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -35221,7 +35501,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV180" t="inlineStr"/>
+      <c r="AV180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -35411,7 +35695,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV181" t="inlineStr"/>
+      <c r="AV181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -35601,7 +35889,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV182" t="inlineStr"/>
+      <c r="AV182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -35791,7 +36083,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV183" t="inlineStr"/>
+      <c r="AV183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -35981,7 +36277,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV184" t="inlineStr"/>
+      <c r="AV184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -36171,7 +36471,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV185" t="inlineStr"/>
+      <c r="AV185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -36361,7 +36665,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV186" t="inlineStr"/>
+      <c r="AV186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40845,7 +41153,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV209" t="inlineStr"/>
+      <c r="AV209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -41035,7 +41347,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV210" t="inlineStr"/>
+      <c r="AV210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -41225,7 +41541,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV211" t="inlineStr"/>
+      <c r="AV211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -41415,7 +41735,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV212" t="inlineStr"/>
+      <c r="AV212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -41605,7 +41929,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV213" t="inlineStr"/>
+      <c r="AV213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -41795,7 +42123,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV214" t="inlineStr"/>
+      <c r="AV214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -41985,7 +42317,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV215" t="inlineStr"/>
+      <c r="AV215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -42175,7 +42511,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV216" t="inlineStr"/>
+      <c r="AV216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -42365,7 +42705,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV217" t="inlineStr"/>
+      <c r="AV217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -42555,7 +42899,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV218" t="inlineStr"/>
+      <c r="AV218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -42745,7 +43093,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV219" t="inlineStr"/>
+      <c r="AV219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">

--- a/Result/checksun/汽車工業.xlsx
+++ b/Result/checksun/汽車工業.xlsx
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-48819795</v>
+        <v>-99654859</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-50587481</v>
+        <v>-75124013</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-60943195</v>
+        <v>-29094121</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>-5791868</v>
+        <v>79769042</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-29126035</v>
+        <v>87995476</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-36938764</v>
+        <v>93539596</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-45043196</v>
+        <v>95550956</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>4589503</v>
+        <v>106940007</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>68787838</v>
+        <v>125469277</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>130604106</v>
+        <v>125905003</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>112532008</v>
+        <v>106470258</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>61690522</v>
+        <v>68263645</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>7214969</v>
+        <v>2638034</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>8110728</v>
+        <v>7265348</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>2136867</v>
+        <v>5293507</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-318423</v>
+        <v>172429</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-6935323</v>
+        <v>-179159</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-8101331</v>
+        <v>1097313</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-4258512</v>
+        <v>-7927459</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>6089943</v>
+        <v>3911372</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>11257971</v>
+        <v>5669691</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>4749364</v>
+        <v>-966825</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>666221</v>
+        <v>-4207439</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>-2059327</v>
+        <v>-3593730</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5201,22 +5201,22 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>272600</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5375,27 +5375,27 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="U27" t="n">
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>-57300</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5554,27 +5554,27 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="U28" t="n">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-96000</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5733,27 +5733,27 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="U29" t="n">
@@ -5912,27 +5912,27 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-1.64</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="U30" t="n">
@@ -6058,11 +6058,11 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>-3.09</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -6087,27 +6087,27 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="U31" t="n">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -6233,11 +6233,11 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>-3.09</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -6262,27 +6262,27 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="U32" t="n">
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -6441,27 +6441,27 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-1.76</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="U33" t="n">
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -6620,27 +6620,27 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
+          <t>-1.31</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
           <t>-1.62</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>-1.82</t>
         </is>
       </c>
       <c r="U34" t="n">
@@ -6766,11 +6766,11 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>-7.73</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -6795,27 +6795,27 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
+          <t>-1.37</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
           <t>-1.70</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>-1.87</t>
         </is>
       </c>
       <c r="U35" t="n">
@@ -6974,27 +6974,27 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-1.70</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="U36" t="n">
@@ -7153,27 +7153,27 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="U37" t="n">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>213185360</v>
+        <v>177613301</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>39981762</v>
+        <v>42056129</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>23905817</v>
+        <v>80296511</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>6909494</v>
+        <v>138326707</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-53464188</v>
+        <v>282958811</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-40743505</v>
+        <v>139738328</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-42481553</v>
+        <v>-21004824</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>55538555</v>
+        <v>177604487</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>97134199</v>
+        <v>58243013</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>173898766</v>
+        <v>143475274</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>280884444</v>
+        <v>497179471</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>83347634</v>
+        <v>641679855</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>17254073</v>
+        <v>21864086</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>35035576</v>
+        <v>39992650</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>21086554</v>
+        <v>39471500</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>10282335</v>
+        <v>41555716</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>-9141521</v>
+        <v>41459569</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>-12150332</v>
+        <v>37762458</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>-5672322</v>
+        <v>17824510</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>14098595</v>
+        <v>19347591</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>30535278</v>
+        <v>5895698</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>36945703</v>
+        <v>38402525</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>36502495</v>
+        <v>48797689</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>19377512</v>
+        <v>61041011</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>5122103</v>
+        <v>5073089</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>449943</v>
+        <v>1752365</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>-933193</v>
+        <v>879519</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>-1144076</v>
+        <v>770830</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>-49363</v>
+        <v>2810103</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>159337</v>
+        <v>2311174</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>1095062</v>
+        <v>1423761</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>1351785</v>
+        <v>1031340</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>1653375</v>
+        <v>110831</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>819844</v>
+        <v>1158984</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>1507681</v>
+        <v>5503882</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>498462</v>
+        <v>5523721</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>10933054</v>
+        <v>-1931756</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>30614859</v>
+        <v>329000</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>6639862</v>
+        <v>10306315</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>-9105177</v>
+        <v>35104199</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>-28832316</v>
+        <v>56113747</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>-32532838</v>
+        <v>71172192</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>-3759633</v>
+        <v>39671855</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>-1453543</v>
+        <v>86369230</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>36199291</v>
+        <v>125173054</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>47969009</v>
+        <v>32648376</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>86399606</v>
+        <v>90764709</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>67505739</v>
+        <v>110218089</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>27648158</v>
+        <v>17258841</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>38189637</v>
+        <v>6617836</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>7209908</v>
+        <v>-439328</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>4719379</v>
+        <v>35795590</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>-39387656</v>
+        <v>15407001</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>-37908994</v>
+        <v>18329055</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>-15108696</v>
+        <v>19049579</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>7815855</v>
+        <v>27362448</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>30259758</v>
+        <v>51203222</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>46184907</v>
+        <v>5185961</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>46978802</v>
+        <v>37743876</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>25978291</v>
+        <v>47471452</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>74394363</v>
+        <v>105366688</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>51971250</v>
+        <v>62630110</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>20720224</v>
+        <v>26288406</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>14139741</v>
+        <v>23114389</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -19281,7 +19281,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>-24786205</v>
+        <v>25057840</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>-2366671</v>
+        <v>26501788</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>16832584</v>
+        <v>175464</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>35445065</v>
+        <v>36878800</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>7934853</v>
+        <v>15870677</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>-7857936</v>
+        <v>-56860854</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>14398980</v>
+        <v>-3881044</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>20933606</v>
+        <v>-15585853</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>7276384</v>
+        <v>26879840</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>5399819</v>
+        <v>28796859</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>11570105</v>
+        <v>50231397</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>9310544</v>
+        <v>90677720</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>-8781243</v>
+        <v>91349093</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>4747810</v>
+        <v>82946162</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>10292912</v>
+        <v>69828317</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>32178283</v>
+        <v>73473583</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>33913482</v>
+        <v>47533939</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>71074264</v>
+        <v>104155334</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>67952053</v>
+        <v>102160036</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>44284870</v>
+        <v>103387194</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>8264875</v>
+        <v>76417918</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>39993286</v>
+        <v>111562066</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>54557312</v>
+        <v>121622175</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>46482551</v>
+        <v>166244152</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>12891945</v>
+        <v>157473831</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>8536115</v>
+        <v>127841013</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>21670492</v>
+        <v>113497670</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>58676835</v>
+        <v>125468379</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>58528748</v>
+        <v>117180473</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>98091109</v>
+        <v>81018055</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>85905051</v>
+        <v>99180437</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>60776150</v>
+        <v>57200743</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>17460643</v>
+        <v>24601660</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>-27540993</v>
+        <v>56780798</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>39998219</v>
+        <v>53146940</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>31493114</v>
+        <v>12670601</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>73184123</v>
+        <v>33568430</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>-25965412</v>
+        <v>-64372927</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -26331,7 +26331,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>-24352097</v>
+        <v>-87723380</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>11137668</v>
+        <v>-75268198</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>39114133</v>
+        <v>-78564234</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>5529584</v>
+        <v>-50572992</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>-50753361</v>
+        <v>-36161545</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -27226,7 +27226,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>-77521648</v>
+        <v>-372027</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>1532931</v>
+        <v>4798452</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>6835846</v>
+        <v>6933252</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>7618766</v>
+        <v>4951539</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>8846646</v>
+        <v>3245762</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -28121,7 +28121,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>1386292</v>
+        <v>-2711488</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>-2423098</v>
+        <v>4196426</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>-5581125</v>
+        <v>-2245495</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>-1288886</v>
+        <v>-3432516</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>-244129</v>
+        <v>-7409646</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>-19759</v>
+        <v>-31658123</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>-2808894</v>
+        <v>-21588563</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>6863653</v>
+        <v>-26082787</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>353983369</v>
+        <v>515939145</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>258295821</v>
+        <v>345074567</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>53663358</v>
+        <v>295923874</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>16339379</v>
+        <v>145016135</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>-119006547</v>
+        <v>170198405</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>202555</v>
+        <v>165252069</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>145616397</v>
+        <v>103469719</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>205785293</v>
+        <v>197702851</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>242057961</v>
+        <v>69781898</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>-16939641</v>
+        <v>-160746460</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>83419659</v>
+        <v>-15747435</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>-77008447</v>
+        <v>-200096410</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>-12223420</v>
+        <v>-17513255</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -31990,7 +31990,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>-7575726</v>
+        <v>-8898075</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -32177,7 +32177,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>-6776853</v>
+        <v>1384133</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -32364,7 +32364,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>69653</v>
+        <v>11936477</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>-6950887</v>
+        <v>11535965</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>-7097000</v>
+        <v>12996737</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>-5359488</v>
+        <v>8735461</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>5628538</v>
+        <v>9968994</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>15257986</v>
+        <v>20532556</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>17226312</v>
+        <v>10718341</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>12858314</v>
+        <v>17146861</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>4835751</v>
+        <v>15664712</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>-27106875</v>
+        <v>135296802</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>-113046750</v>
+        <v>114624573</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>-4577670</v>
+        <v>195682473</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>109462058</v>
+        <v>253559646</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>240226227</v>
+        <v>302150772</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>156132112</v>
+        <v>224969771</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>52941619</v>
+        <v>119149488</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>-12554904</v>
+        <v>5308885</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>44128031</v>
+        <v>11591929</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -35710,7 +35710,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>91155969</v>
+        <v>7397705</v>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
@@ -35891,7 +35891,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>74479449</v>
+        <v>-10751422</v>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>24709628</v>
+        <v>-84636573</v>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>1950990</v>
+        <v>1996196</v>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
@@ -36432,7 +36432,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>6302586</v>
+        <v>8335971</v>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>3829033</v>
+        <v>-24718103</v>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
@@ -36790,7 +36790,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>2374256</v>
+        <v>-17970460</v>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
@@ -36969,7 +36969,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>-5323054</v>
+        <v>-16259527</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
@@ -37148,7 +37148,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>-7233880</v>
+        <v>-18437740</v>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
@@ -37327,7 +37327,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>-2329050</v>
+        <v>-24364107</v>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>7356439</v>
+        <v>-24481442</v>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
@@ -37685,7 +37685,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>-21313256</v>
+        <v>12204178</v>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
@@ -37864,7 +37864,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>-18015666</v>
+        <v>9313579</v>
       </c>
       <c r="AC203" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>-18292912</v>
+        <v>10553029</v>
       </c>
       <c r="AC204" t="inlineStr">
         <is>
@@ -38222,7 +38222,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>10109396</v>
+        <v>49095311</v>
       </c>
       <c r="AC205" t="inlineStr">
         <is>
@@ -38401,7 +38401,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>7942986</v>
+        <v>25259966</v>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
@@ -38580,7 +38580,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>14334110</v>
+        <v>36065498</v>
       </c>
       <c r="AC207" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>12501088</v>
+        <v>36338241</v>
       </c>
       <c r="AC208" t="inlineStr">
         <is>
@@ -38938,7 +38938,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>9463756</v>
+        <v>28817175</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
@@ -39117,7 +39117,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>-666887</v>
+        <v>31581497</v>
       </c>
       <c r="AC210" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>4467116</v>
+        <v>21416416</v>
       </c>
       <c r="AC211" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>7853224</v>
+        <v>14957216</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>22398275</v>
+        <v>17422532</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>19370037</v>
+        <v>-95337</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>11500195</v>
+        <v>4350728</v>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>9850109</v>
+        <v>7030953</v>
       </c>
       <c r="AC216" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>-2420737</v>
+        <v>15253403</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
@@ -40557,7 +40557,7 @@
         </is>
       </c>
       <c r="AB218" t="n">
-        <v>-15921839</v>
+        <v>-19296998</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         </is>
       </c>
       <c r="AB219" t="n">
-        <v>-7861769</v>
+        <v>-13145880</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -40931,7 +40931,7 @@
         </is>
       </c>
       <c r="AB220" t="n">
-        <v>-7395876</v>
+        <v>-9721613</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         </is>
       </c>
       <c r="AB221" t="n">
-        <v>-1423784</v>
+        <v>-4272904</v>
       </c>
       <c r="AC221" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         </is>
       </c>
       <c r="AB222" t="n">
-        <v>-4238277</v>
+        <v>-298232</v>
       </c>
       <c r="AC222" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         </is>
       </c>
       <c r="AB223" t="n">
-        <v>-4125177</v>
+        <v>188106</v>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         </is>
       </c>
       <c r="AB224" t="n">
-        <v>-1951375</v>
+        <v>536056</v>
       </c>
       <c r="AC224" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         </is>
       </c>
       <c r="AB225" t="n">
-        <v>-1045834</v>
+        <v>5324891</v>
       </c>
       <c r="AC225" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         </is>
       </c>
       <c r="AB226" t="n">
-        <v>1799440</v>
+        <v>7823448</v>
       </c>
       <c r="AC226" t="inlineStr">
         <is>
@@ -42232,7 +42232,7 @@
         </is>
       </c>
       <c r="AB227" t="n">
-        <v>-897745</v>
+        <v>380123</v>
       </c>
       <c r="AC227" t="inlineStr">
         <is>
@@ -42411,7 +42411,7 @@
         </is>
       </c>
       <c r="AB228" t="n">
-        <v>4985879</v>
+        <v>4688438</v>
       </c>
       <c r="AC228" t="inlineStr">
         <is>
@@ -42590,7 +42590,7 @@
         </is>
       </c>
       <c r="AB229" t="n">
-        <v>2513843</v>
+        <v>-558611</v>
       </c>
       <c r="AC229" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
         </is>
       </c>
       <c r="AB230" t="n">
-        <v>86700237</v>
+        <v>59148665</v>
       </c>
       <c r="AC230" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         </is>
       </c>
       <c r="AB231" t="n">
-        <v>52681352</v>
+        <v>22826598</v>
       </c>
       <c r="AC231" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         </is>
       </c>
       <c r="AB232" t="n">
-        <v>27551684</v>
+        <v>-12806442</v>
       </c>
       <c r="AC232" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         </is>
       </c>
       <c r="AB233" t="n">
-        <v>-2140614</v>
+        <v>-53492219</v>
       </c>
       <c r="AC233" t="inlineStr">
         <is>
@@ -43493,7 +43493,7 @@
         </is>
       </c>
       <c r="AB234" t="n">
-        <v>-34026084</v>
+        <v>-34632779</v>
       </c>
       <c r="AC234" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         </is>
       </c>
       <c r="AB235" t="n">
-        <v>-50044405</v>
+        <v>-53618643</v>
       </c>
       <c r="AC235" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         </is>
       </c>
       <c r="AB236" t="n">
-        <v>-25410958</v>
+        <v>-58528700</v>
       </c>
       <c r="AC236" t="inlineStr">
         <is>
@@ -44036,7 +44036,7 @@
         </is>
       </c>
       <c r="AB237" t="n">
-        <v>4171330</v>
+        <v>-15865159</v>
       </c>
       <c r="AC237" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         </is>
       </c>
       <c r="AB238" t="n">
-        <v>9686279</v>
+        <v>-25832146</v>
       </c>
       <c r="AC238" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         </is>
       </c>
       <c r="AB239" t="n">
-        <v>-25940647</v>
+        <v>-2994663</v>
       </c>
       <c r="AC239" t="inlineStr">
         <is>
@@ -44579,7 +44579,7 @@
         </is>
       </c>
       <c r="AB240" t="n">
-        <v>-4778025</v>
+        <v>36596783</v>
       </c>
       <c r="AC240" t="inlineStr">
         <is>
@@ -44760,7 +44760,7 @@
         </is>
       </c>
       <c r="AB241" t="n">
-        <v>-13260517</v>
+        <v>96491727</v>
       </c>
       <c r="AC241" t="inlineStr">
         <is>
@@ -44941,7 +44941,7 @@
         </is>
       </c>
       <c r="AB242" t="n">
-        <v>645942295</v>
+        <v>614945016</v>
       </c>
       <c r="AC242" t="inlineStr">
         <is>
@@ -45122,7 +45122,7 @@
         </is>
       </c>
       <c r="AB243" t="n">
-        <v>220813291</v>
+        <v>221058225</v>
       </c>
       <c r="AC243" t="inlineStr">
         <is>
@@ -45303,7 +45303,7 @@
         </is>
       </c>
       <c r="AB244" t="n">
-        <v>-163455436</v>
+        <v>11295801</v>
       </c>
       <c r="AC244" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         </is>
       </c>
       <c r="AB245" t="n">
-        <v>119006921</v>
+        <v>328205950</v>
       </c>
       <c r="AC245" t="inlineStr">
         <is>
@@ -45665,7 +45665,7 @@
         </is>
       </c>
       <c r="AB246" t="n">
-        <v>-199397690</v>
+        <v>415921547</v>
       </c>
       <c r="AC246" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         </is>
       </c>
       <c r="AB247" t="n">
-        <v>-407197813</v>
+        <v>288442815</v>
       </c>
       <c r="AC247" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="AB248" t="n">
-        <v>-150004200</v>
+        <v>-298728081</v>
       </c>
       <c r="AC248" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         </is>
       </c>
       <c r="AB249" t="n">
-        <v>199642624</v>
+        <v>351805693</v>
       </c>
       <c r="AC249" t="inlineStr">
         <is>
@@ -46389,7 +46389,7 @@
         </is>
       </c>
       <c r="AB250" t="n">
-        <v>581949050</v>
+        <v>680065032</v>
       </c>
       <c r="AC250" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         </is>
       </c>
       <c r="AB251" t="n">
-        <v>359203229</v>
+        <v>201754506</v>
       </c>
       <c r="AC251" t="inlineStr">
         <is>
@@ -46751,7 +46751,7 @@
         </is>
       </c>
       <c r="AB252" t="n">
-        <v>415676613</v>
+        <v>270853775</v>
       </c>
       <c r="AC252" t="inlineStr">
         <is>
@@ -46932,7 +46932,7 @@
         </is>
       </c>
       <c r="AB253" t="n">
-        <v>113691578</v>
+        <v>295555602</v>
       </c>
       <c r="AC253" t="inlineStr">
         <is>
@@ -47121,7 +47121,7 @@
         </is>
       </c>
       <c r="AB254" t="n">
-        <v>39961890</v>
+        <v>75856896</v>
       </c>
       <c r="AC254" t="inlineStr">
         <is>
@@ -47310,7 +47310,7 @@
         </is>
       </c>
       <c r="AB255" t="n">
-        <v>77035343</v>
+        <v>66627540</v>
       </c>
       <c r="AC255" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         </is>
       </c>
       <c r="AB256" t="n">
-        <v>69207049</v>
+        <v>133563953</v>
       </c>
       <c r="AC256" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         </is>
       </c>
       <c r="AB257" t="n">
-        <v>-1157613</v>
+        <v>83240210</v>
       </c>
       <c r="AC257" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         </is>
       </c>
       <c r="AB258" t="n">
-        <v>-38876620</v>
+        <v>14480242</v>
       </c>
       <c r="AC258" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="AB259" t="n">
-        <v>-22455280</v>
+        <v>-1028448</v>
       </c>
       <c r="AC259" t="inlineStr">
         <is>
@@ -48255,7 +48255,7 @@
         </is>
       </c>
       <c r="AB260" t="n">
-        <v>37052619</v>
+        <v>-84729292</v>
       </c>
       <c r="AC260" t="inlineStr">
         <is>
@@ -48444,7 +48444,7 @@
         </is>
       </c>
       <c r="AB261" t="n">
-        <v>28468817</v>
+        <v>-130031888</v>
       </c>
       <c r="AC261" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         </is>
       </c>
       <c r="AB262" t="n">
-        <v>86812184</v>
+        <v>-18257020</v>
       </c>
       <c r="AC262" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         </is>
       </c>
       <c r="AB263" t="n">
-        <v>47345204</v>
+        <v>-36398101</v>
       </c>
       <c r="AC263" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         </is>
       </c>
       <c r="AB264" t="n">
-        <v>24888045</v>
+        <v>87272700</v>
       </c>
       <c r="AC264" t="inlineStr">
         <is>
@@ -49168,7 +49168,7 @@
         </is>
       </c>
       <c r="AB265" t="n">
-        <v>-65385352</v>
+        <v>155779030</v>
       </c>
       <c r="AC265" t="inlineStr">
         <is>
@@ -49357,7 +49357,7 @@
         </is>
       </c>
       <c r="AB266" t="n">
-        <v>59286909</v>
+        <v>136982656</v>
       </c>
       <c r="AC266" t="inlineStr">
         <is>
@@ -49546,7 +49546,7 @@
         </is>
       </c>
       <c r="AB267" t="n">
-        <v>57198096</v>
+        <v>137260190</v>
       </c>
       <c r="AC267" t="inlineStr">
         <is>
@@ -49735,7 +49735,7 @@
         </is>
       </c>
       <c r="AB268" t="n">
-        <v>19740798</v>
+        <v>70686665</v>
       </c>
       <c r="AC268" t="inlineStr">
         <is>
@@ -49924,7 +49924,7 @@
         </is>
       </c>
       <c r="AB269" t="n">
-        <v>26710884</v>
+        <v>117892722</v>
       </c>
       <c r="AC269" t="inlineStr">
         <is>
@@ -50113,7 +50113,7 @@
         </is>
       </c>
       <c r="AB270" t="n">
-        <v>-52770142</v>
+        <v>151602867</v>
       </c>
       <c r="AC270" t="inlineStr">
         <is>
@@ -50302,7 +50302,7 @@
         </is>
       </c>
       <c r="AB271" t="n">
-        <v>882816</v>
+        <v>130578113</v>
       </c>
       <c r="AC271" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="AB272" t="n">
-        <v>50984863</v>
+        <v>15654433</v>
       </c>
       <c r="AC272" t="inlineStr">
         <is>
@@ -50680,7 +50680,7 @@
         </is>
       </c>
       <c r="AB273" t="n">
-        <v>132832236</v>
+        <v>376695864</v>
       </c>
       <c r="AC273" t="inlineStr">
         <is>
@@ -50869,7 +50869,7 @@
         </is>
       </c>
       <c r="AB274" t="n">
-        <v>50063051</v>
+        <v>376314029</v>
       </c>
       <c r="AC274" t="inlineStr">
         <is>
@@ -51058,7 +51058,7 @@
         </is>
       </c>
       <c r="AB275" t="n">
-        <v>40196975</v>
+        <v>275505226</v>
       </c>
       <c r="AC275" t="inlineStr">
         <is>
@@ -51247,7 +51247,7 @@
         </is>
       </c>
       <c r="AB276" t="n">
-        <v>71540773</v>
+        <v>281825983</v>
       </c>
       <c r="AC276" t="inlineStr">
         <is>
@@ -51436,7 +51436,7 @@
         </is>
       </c>
       <c r="AB277" t="n">
-        <v>79632246</v>
+        <v>302879653</v>
       </c>
       <c r="AC277" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         </is>
       </c>
       <c r="AB278" t="n">
-        <v>3636620</v>
+        <v>4042648</v>
       </c>
       <c r="AC278" t="inlineStr">
         <is>
@@ -51814,7 +51814,7 @@
         </is>
       </c>
       <c r="AB279" t="n">
-        <v>8874325</v>
+        <v>7801901</v>
       </c>
       <c r="AC279" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="AB280" t="n">
-        <v>3134609</v>
+        <v>5881043</v>
       </c>
       <c r="AC280" t="inlineStr">
         <is>
@@ -52192,7 +52192,7 @@
         </is>
       </c>
       <c r="AB281" t="n">
-        <v>-1733077</v>
+        <v>780578</v>
       </c>
       <c r="AC281" t="inlineStr">
         <is>
@@ -52381,7 +52381,7 @@
         </is>
       </c>
       <c r="AB282" t="n">
-        <v>-8187644</v>
+        <v>147778</v>
       </c>
       <c r="AC282" t="inlineStr">
         <is>
@@ -52570,7 +52570,7 @@
         </is>
       </c>
       <c r="AB283" t="n">
-        <v>-3889142</v>
+        <v>2038473</v>
       </c>
       <c r="AC283" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         </is>
       </c>
       <c r="AB284" t="n">
-        <v>2139105</v>
+        <v>1845620</v>
       </c>
       <c r="AC284" t="inlineStr">
         <is>
@@ -52948,7 +52948,7 @@
         </is>
       </c>
       <c r="AB285" t="n">
-        <v>7115220</v>
+        <v>3056049</v>
       </c>
       <c r="AC285" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         </is>
       </c>
       <c r="AB286" t="n">
-        <v>6635576</v>
+        <v>3508760</v>
       </c>
       <c r="AC286" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         </is>
       </c>
       <c r="AB287" t="n">
-        <v>374550</v>
+        <v>-4755313</v>
       </c>
       <c r="AC287" t="inlineStr">
         <is>
@@ -53491,7 +53491,7 @@
         </is>
       </c>
       <c r="AB288" t="n">
-        <v>1220202</v>
+        <v>146422</v>
       </c>
       <c r="AC288" t="inlineStr">
         <is>
@@ -53672,7 +53672,7 @@
         </is>
       </c>
       <c r="AB289" t="n">
-        <v>-707961</v>
+        <v>-7782594</v>
       </c>
       <c r="AC289" t="inlineStr">
         <is>
@@ -53861,7 +53861,7 @@
         </is>
       </c>
       <c r="AB290" t="n">
-        <v>177992010</v>
+        <v>521663478</v>
       </c>
       <c r="AC290" t="inlineStr">
         <is>
@@ -54050,7 +54050,7 @@
         </is>
       </c>
       <c r="AB291" t="n">
-        <v>200242704</v>
+        <v>730687357</v>
       </c>
       <c r="AC291" t="inlineStr">
         <is>
@@ -54231,7 +54231,7 @@
         </is>
       </c>
       <c r="AB292" t="n">
-        <v>-133275906</v>
+        <v>664251560</v>
       </c>
       <c r="AC292" t="inlineStr">
         <is>
@@ -54412,7 +54412,7 @@
         </is>
       </c>
       <c r="AB293" t="n">
-        <v>169880266</v>
+        <v>358821430</v>
       </c>
       <c r="AC293" t="inlineStr">
         <is>
@@ -54593,7 +54593,7 @@
         </is>
       </c>
       <c r="AB294" t="n">
-        <v>625522281</v>
+        <v>700440078</v>
       </c>
       <c r="AC294" t="inlineStr">
         <is>
@@ -54774,7 +54774,7 @@
         </is>
       </c>
       <c r="AB295" t="n">
-        <v>927484183</v>
+        <v>1040428671</v>
       </c>
       <c r="AC295" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="AB296" t="n">
-        <v>173791202</v>
+        <v>602461326</v>
       </c>
       <c r="AC296" t="inlineStr">
         <is>
@@ -55136,7 +55136,7 @@
         </is>
       </c>
       <c r="AB297" t="n">
-        <v>-95077628</v>
+        <v>184710730</v>
       </c>
       <c r="AC297" t="inlineStr">
         <is>
@@ -55317,7 +55317,7 @@
         </is>
       </c>
       <c r="AB298" t="n">
-        <v>-129956717</v>
+        <v>240484341</v>
       </c>
       <c r="AC298" t="inlineStr">
         <is>
@@ -55498,7 +55498,7 @@
         </is>
       </c>
       <c r="AB299" t="n">
-        <v>15149962</v>
+        <v>301102138</v>
       </c>
       <c r="AC299" t="inlineStr">
         <is>
@@ -55679,7 +55679,7 @@
         </is>
       </c>
       <c r="AB300" t="n">
-        <v>169995425</v>
+        <v>26762976</v>
       </c>
       <c r="AC300" t="inlineStr">
         <is>
@@ -55860,7 +55860,7 @@
         </is>
       </c>
       <c r="AB301" t="n">
-        <v>242901205</v>
+        <v>236467390</v>
       </c>
       <c r="AC301" t="inlineStr">
         <is>
@@ -56049,7 +56049,7 @@
         </is>
       </c>
       <c r="AB302" t="n">
-        <v>-89142263</v>
+        <v>14495627</v>
       </c>
       <c r="AC302" t="inlineStr">
         <is>
@@ -56238,7 +56238,7 @@
         </is>
       </c>
       <c r="AB303" t="n">
-        <v>54926241</v>
+        <v>100990403</v>
       </c>
       <c r="AC303" t="inlineStr">
         <is>
@@ -56427,7 +56427,7 @@
         </is>
       </c>
       <c r="AB304" t="n">
-        <v>181189385</v>
+        <v>191995190</v>
       </c>
       <c r="AC304" t="inlineStr">
         <is>
@@ -56616,7 +56616,7 @@
         </is>
       </c>
       <c r="AB305" t="n">
-        <v>160758701</v>
+        <v>178319123</v>
       </c>
       <c r="AC305" t="inlineStr">
         <is>
@@ -56805,7 +56805,7 @@
         </is>
       </c>
       <c r="AB306" t="n">
-        <v>53746162</v>
+        <v>212027932</v>
       </c>
       <c r="AC306" t="inlineStr">
         <is>
@@ -56986,7 +56986,7 @@
         </is>
       </c>
       <c r="AB307" t="n">
-        <v>-54476481</v>
+        <v>7022843</v>
       </c>
       <c r="AC307" t="inlineStr">
         <is>
@@ -57167,7 +57167,7 @@
         </is>
       </c>
       <c r="AB308" t="n">
-        <v>-57120811</v>
+        <v>-167914206</v>
       </c>
       <c r="AC308" t="inlineStr">
         <is>
@@ -57348,7 +57348,7 @@
         </is>
       </c>
       <c r="AB309" t="n">
-        <v>-7682000</v>
+        <v>-175618935</v>
       </c>
       <c r="AC309" t="inlineStr">
         <is>
@@ -57529,7 +57529,7 @@
         </is>
       </c>
       <c r="AB310" t="n">
-        <v>65282286</v>
+        <v>-194877321</v>
       </c>
       <c r="AC310" t="inlineStr">
         <is>
@@ -57710,7 +57710,7 @@
         </is>
       </c>
       <c r="AB311" t="n">
-        <v>74681233</v>
+        <v>-167462833</v>
       </c>
       <c r="AC311" t="inlineStr">
         <is>
@@ -57891,7 +57891,7 @@
         </is>
       </c>
       <c r="AB312" t="n">
-        <v>165963770</v>
+        <v>-43002442</v>
       </c>
       <c r="AC312" t="inlineStr">
         <is>
@@ -58072,7 +58072,7 @@
         </is>
       </c>
       <c r="AB313" t="n">
-        <v>-3782962</v>
+        <v>-213775434</v>
       </c>
       <c r="AC313" t="inlineStr">
         <is>
@@ -58261,7 +58261,7 @@
         </is>
       </c>
       <c r="AB314" t="n">
-        <v>85504331</v>
+        <v>369744274</v>
       </c>
       <c r="AC314" t="inlineStr">
         <is>
@@ -58450,7 +58450,7 @@
         </is>
       </c>
       <c r="AB315" t="n">
-        <v>110943777</v>
+        <v>392422069</v>
       </c>
       <c r="AC315" t="inlineStr">
         <is>
@@ -58639,7 +58639,7 @@
         </is>
       </c>
       <c r="AB316" t="n">
-        <v>135072240</v>
+        <v>393468760</v>
       </c>
       <c r="AC316" t="inlineStr">
         <is>
@@ -58828,7 +58828,7 @@
         </is>
       </c>
       <c r="AB317" t="n">
-        <v>303397217</v>
+        <v>523777340</v>
       </c>
       <c r="AC317" t="inlineStr">
         <is>
@@ -59017,7 +59017,7 @@
         </is>
       </c>
       <c r="AB318" t="n">
-        <v>109792642</v>
+        <v>330246588</v>
       </c>
       <c r="AC318" t="inlineStr">
         <is>
@@ -59206,7 +59206,7 @@
         </is>
       </c>
       <c r="AB319" t="n">
-        <v>-92882087</v>
+        <v>313409134</v>
       </c>
       <c r="AC319" t="inlineStr">
         <is>
@@ -59387,7 +59387,7 @@
         </is>
       </c>
       <c r="AB320" t="n">
-        <v>-19157274</v>
+        <v>123895471</v>
       </c>
       <c r="AC320" t="inlineStr">
         <is>
@@ -59568,7 +59568,7 @@
         </is>
       </c>
       <c r="AB321" t="n">
-        <v>171685650</v>
+        <v>148799726</v>
       </c>
       <c r="AC321" t="inlineStr">
         <is>
@@ -59749,7 +59749,7 @@
         </is>
       </c>
       <c r="AB322" t="n">
-        <v>351278607</v>
+        <v>154189252</v>
       </c>
       <c r="AC322" t="inlineStr">
         <is>
@@ -59930,7 +59930,7 @@
         </is>
       </c>
       <c r="AB323" t="n">
-        <v>239537397</v>
+        <v>246241909</v>
       </c>
       <c r="AC323" t="inlineStr">
         <is>
@@ -60111,7 +60111,7 @@
         </is>
       </c>
       <c r="AB324" t="n">
-        <v>48768296</v>
+        <v>371387557</v>
       </c>
       <c r="AC324" t="inlineStr">
         <is>
@@ -60292,7 +60292,7 @@
         </is>
       </c>
       <c r="AB325" t="n">
-        <v>55012614</v>
+        <v>71711928</v>
       </c>
       <c r="AC325" t="inlineStr">
         <is>
@@ -60481,7 +60481,7 @@
         </is>
       </c>
       <c r="AB326" t="n">
-        <v>-32991414</v>
+        <v>-212054647</v>
       </c>
       <c r="AC326" t="inlineStr">
         <is>
@@ -60670,7 +60670,7 @@
         </is>
       </c>
       <c r="AB327" t="n">
-        <v>-245654740</v>
+        <v>-42574541</v>
       </c>
       <c r="AC327" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="AB328" t="n">
-        <v>8913216</v>
+        <v>-50939989</v>
       </c>
       <c r="AC328" t="inlineStr">
         <is>
@@ -61048,7 +61048,7 @@
         </is>
       </c>
       <c r="AB329" t="n">
-        <v>-108002030</v>
+        <v>-61035243</v>
       </c>
       <c r="AC329" t="inlineStr">
         <is>
@@ -61237,7 +61237,7 @@
         </is>
       </c>
       <c r="AB330" t="n">
-        <v>18688096</v>
+        <v>410074531</v>
       </c>
       <c r="AC330" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="AB331" t="n">
-        <v>-74764131</v>
+        <v>373360582</v>
       </c>
       <c r="AC331" t="inlineStr">
         <is>
@@ -61615,7 +61615,7 @@
         </is>
       </c>
       <c r="AB332" t="n">
-        <v>-71061203</v>
+        <v>249754883</v>
       </c>
       <c r="AC332" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         </is>
       </c>
       <c r="AB333" t="n">
-        <v>184392103</v>
+        <v>371442319</v>
       </c>
       <c r="AC333" t="inlineStr">
         <is>
@@ -61993,7 +61993,7 @@
         </is>
       </c>
       <c r="AB334" t="n">
-        <v>14910926</v>
+        <v>397245014</v>
       </c>
       <c r="AC334" t="inlineStr">
         <is>
@@ -62182,7 +62182,7 @@
         </is>
       </c>
       <c r="AB335" t="n">
-        <v>118027990</v>
+        <v>211302586</v>
       </c>
       <c r="AC335" t="inlineStr">
         <is>
@@ -62363,7 +62363,7 @@
         </is>
       </c>
       <c r="AB336" t="n">
-        <v>206994332</v>
+        <v>377017436</v>
       </c>
       <c r="AC336" t="inlineStr">
         <is>
@@ -62544,7 +62544,7 @@
         </is>
       </c>
       <c r="AB337" t="n">
-        <v>433213787</v>
+        <v>245611882</v>
       </c>
       <c r="AC337" t="inlineStr">
         <is>
@@ -62733,7 +62733,7 @@
         </is>
       </c>
       <c r="AB338" t="n">
-        <v>4068683</v>
+        <v>8578892</v>
       </c>
       <c r="AC338" t="inlineStr">
         <is>
@@ -62922,7 +62922,7 @@
         </is>
       </c>
       <c r="AB339" t="n">
-        <v>4266801</v>
+        <v>7399628</v>
       </c>
       <c r="AC339" t="inlineStr">
         <is>
@@ -63111,7 +63111,7 @@
         </is>
       </c>
       <c r="AB340" t="n">
-        <v>4510919</v>
+        <v>7595354</v>
       </c>
       <c r="AC340" t="inlineStr">
         <is>
@@ -63300,7 +63300,7 @@
         </is>
       </c>
       <c r="AB341" t="n">
-        <v>3525182</v>
+        <v>6319224</v>
       </c>
       <c r="AC341" t="inlineStr">
         <is>
@@ -63481,7 +63481,7 @@
         </is>
       </c>
       <c r="AB342" t="n">
-        <v>1826665</v>
+        <v>8866022</v>
       </c>
       <c r="AC342" t="inlineStr">
         <is>
@@ -63662,7 +63662,7 @@
         </is>
       </c>
       <c r="AB343" t="n">
-        <v>1093609</v>
+        <v>6761806</v>
       </c>
       <c r="AC343" t="inlineStr">
         <is>
@@ -63843,7 +63843,7 @@
         </is>
       </c>
       <c r="AB344" t="n">
-        <v>985027</v>
+        <v>4513523</v>
       </c>
       <c r="AC344" t="inlineStr">
         <is>
@@ -64024,7 +64024,7 @@
         </is>
       </c>
       <c r="AB345" t="n">
-        <v>1306162</v>
+        <v>4228735</v>
       </c>
       <c r="AC345" t="inlineStr">
         <is>
@@ -64205,7 +64205,7 @@
         </is>
       </c>
       <c r="AB346" t="n">
-        <v>1990826</v>
+        <v>2825332</v>
       </c>
       <c r="AC346" t="inlineStr">
         <is>
@@ -64386,7 +64386,7 @@
         </is>
       </c>
       <c r="AB347" t="n">
-        <v>1809015</v>
+        <v>1019905</v>
       </c>
       <c r="AC347" t="inlineStr">
         <is>
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="AB348" t="n">
-        <v>5733195</v>
+        <v>2809553</v>
       </c>
       <c r="AC348" t="inlineStr">
         <is>
@@ -64748,7 +64748,7 @@
         </is>
       </c>
       <c r="AB349" t="n">
-        <v>3677371</v>
+        <v>351247</v>
       </c>
       <c r="AC349" t="inlineStr">
         <is>
@@ -64937,7 +64937,7 @@
         </is>
       </c>
       <c r="AB350" t="n">
-        <v>17534272</v>
+        <v>21922967</v>
       </c>
       <c r="AC350" t="inlineStr">
         <is>
@@ -65124,7 +65124,7 @@
         </is>
       </c>
       <c r="AB351" t="n">
-        <v>14736626</v>
+        <v>23720990</v>
       </c>
       <c r="AC351" t="inlineStr">
         <is>
@@ -65311,7 +65311,7 @@
         </is>
       </c>
       <c r="AB352" t="n">
-        <v>4737645</v>
+        <v>18985171</v>
       </c>
       <c r="AC352" t="inlineStr">
         <is>
@@ -65498,7 +65498,7 @@
         </is>
       </c>
       <c r="AB353" t="n">
-        <v>1127688</v>
+        <v>20303439</v>
       </c>
       <c r="AC353" t="inlineStr">
         <is>
@@ -65685,7 +65685,7 @@
         </is>
       </c>
       <c r="AB354" t="n">
-        <v>-8786757</v>
+        <v>21755021</v>
       </c>
       <c r="AC354" t="inlineStr">
         <is>
@@ -65872,7 +65872,7 @@
         </is>
       </c>
       <c r="AB355" t="n">
-        <v>-796245</v>
+        <v>27354926</v>
       </c>
       <c r="AC355" t="inlineStr">
         <is>
@@ -66059,7 +66059,7 @@
         </is>
       </c>
       <c r="AB356" t="n">
-        <v>3261007</v>
+        <v>21694198</v>
       </c>
       <c r="AC356" t="inlineStr">
         <is>
@@ -66246,7 +66246,7 @@
         </is>
       </c>
       <c r="AB357" t="n">
-        <v>17771121</v>
+        <v>27653817</v>
       </c>
       <c r="AC357" t="inlineStr">
         <is>
@@ -66433,7 +66433,7 @@
         </is>
       </c>
       <c r="AB358" t="n">
-        <v>15043771</v>
+        <v>18710880</v>
       </c>
       <c r="AC358" t="inlineStr">
         <is>
@@ -66620,7 +66620,7 @@
         </is>
       </c>
       <c r="AB359" t="n">
-        <v>15914744</v>
+        <v>6635126</v>
       </c>
       <c r="AC359" t="inlineStr">
         <is>
@@ -66799,7 +66799,7 @@
         </is>
       </c>
       <c r="AB360" t="n">
-        <v>12770657</v>
+        <v>14011769</v>
       </c>
       <c r="AC360" t="inlineStr">
         <is>
@@ -66978,7 +66978,7 @@
         </is>
       </c>
       <c r="AB361" t="n">
-        <v>13107400</v>
+        <v>19204960</v>
       </c>
       <c r="AC361" t="inlineStr">
         <is>
@@ -67165,7 +67165,7 @@
         </is>
       </c>
       <c r="AB362" t="n">
-        <v>8399849</v>
+        <v>11516982</v>
       </c>
       <c r="AC362" t="inlineStr">
         <is>
@@ -67354,7 +67354,7 @@
         </is>
       </c>
       <c r="AB363" t="n">
-        <v>7914418</v>
+        <v>11026892</v>
       </c>
       <c r="AC363" t="inlineStr">
         <is>
@@ -67543,7 +67543,7 @@
         </is>
       </c>
       <c r="AB364" t="n">
-        <v>4870024</v>
+        <v>12980475</v>
       </c>
       <c r="AC364" t="inlineStr">
         <is>
@@ -67732,7 +67732,7 @@
         </is>
       </c>
       <c r="AB365" t="n">
-        <v>2990321</v>
+        <v>21406541</v>
       </c>
       <c r="AC365" t="inlineStr">
         <is>
@@ -67921,7 +67921,7 @@
         </is>
       </c>
       <c r="AB366" t="n">
-        <v>-3386376</v>
+        <v>21031399</v>
       </c>
       <c r="AC366" t="inlineStr">
         <is>
@@ -68110,7 +68110,7 @@
         </is>
       </c>
       <c r="AB367" t="n">
-        <v>-3995250</v>
+        <v>19288690</v>
       </c>
       <c r="AC367" t="inlineStr">
         <is>
@@ -68299,7 +68299,7 @@
         </is>
       </c>
       <c r="AB368" t="n">
-        <v>126812</v>
+        <v>15827200</v>
       </c>
       <c r="AC368" t="inlineStr">
         <is>
@@ -68488,7 +68488,7 @@
         </is>
       </c>
       <c r="AB369" t="n">
-        <v>6498850</v>
+        <v>16491072</v>
       </c>
       <c r="AC369" t="inlineStr">
         <is>
@@ -68677,7 +68677,7 @@
         </is>
       </c>
       <c r="AB370" t="n">
-        <v>12105701</v>
+        <v>14100768</v>
       </c>
       <c r="AC370" t="inlineStr">
         <is>
@@ -68858,7 +68858,7 @@
         </is>
       </c>
       <c r="AB371" t="n">
-        <v>18289408</v>
+        <v>-15440785</v>
       </c>
       <c r="AC371" t="inlineStr">
         <is>
@@ -69039,7 +69039,7 @@
         </is>
       </c>
       <c r="AB372" t="n">
-        <v>17918925</v>
+        <v>4751179</v>
       </c>
       <c r="AC372" t="inlineStr">
         <is>
@@ -69220,7 +69220,7 @@
         </is>
       </c>
       <c r="AB373" t="n">
-        <v>11178239</v>
+        <v>5303071</v>
       </c>
       <c r="AC373" t="inlineStr">
         <is>
@@ -69401,7 +69401,7 @@
         </is>
       </c>
       <c r="AB374" t="n">
-        <v>50995543</v>
+        <v>74183033</v>
       </c>
       <c r="AC374" t="inlineStr">
         <is>
@@ -69582,7 +69582,7 @@
         </is>
       </c>
       <c r="AB375" t="n">
-        <v>36861104</v>
+        <v>62293353</v>
       </c>
       <c r="AC375" t="inlineStr">
         <is>
@@ -69763,7 +69763,7 @@
         </is>
       </c>
       <c r="AB376" t="n">
-        <v>77752852</v>
+        <v>134495609</v>
       </c>
       <c r="AC376" t="inlineStr">
         <is>
@@ -69944,7 +69944,7 @@
         </is>
       </c>
       <c r="AB377" t="n">
-        <v>47526819</v>
+        <v>132435897</v>
       </c>
       <c r="AC377" t="inlineStr">
         <is>
@@ -70125,7 +70125,7 @@
         </is>
       </c>
       <c r="AB378" t="n">
-        <v>3772535</v>
+        <v>142536495</v>
       </c>
       <c r="AC378" t="inlineStr">
         <is>
@@ -70306,7 +70306,7 @@
         </is>
       </c>
       <c r="AB379" t="n">
-        <v>-39675269</v>
+        <v>116061578</v>
       </c>
       <c r="AC379" t="inlineStr">
         <is>
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="AB380" t="n">
-        <v>-24339329</v>
+        <v>75323681</v>
       </c>
       <c r="AC380" t="inlineStr">
         <is>
@@ -70668,7 +70668,7 @@
         </is>
       </c>
       <c r="AB381" t="n">
-        <v>21659714</v>
+        <v>124712722</v>
       </c>
       <c r="AC381" t="inlineStr">
         <is>
@@ -70849,7 +70849,7 @@
         </is>
       </c>
       <c r="AB382" t="n">
-        <v>96418026</v>
+        <v>128073993</v>
       </c>
       <c r="AC382" t="inlineStr">
         <is>
@@ -71030,7 +71030,7 @@
         </is>
       </c>
       <c r="AB383" t="n">
-        <v>109248407</v>
+        <v>133132547</v>
       </c>
       <c r="AC383" t="inlineStr">
         <is>
@@ -71211,7 +71211,7 @@
         </is>
       </c>
       <c r="AB384" t="n">
-        <v>117104246</v>
+        <v>192534946</v>
       </c>
       <c r="AC384" t="inlineStr">
         <is>
@@ -71392,7 +71392,7 @@
         </is>
       </c>
       <c r="AB385" t="n">
-        <v>59318821</v>
+        <v>108336059</v>
       </c>
       <c r="AC385" t="inlineStr">
         <is>
@@ -71581,7 +71581,7 @@
         </is>
       </c>
       <c r="AB386" t="n">
-        <v>1903264098</v>
+        <v>4058493112</v>
       </c>
       <c r="AC386" t="inlineStr">
         <is>
@@ -71768,7 +71768,7 @@
         </is>
       </c>
       <c r="AB387" t="n">
-        <v>1514994757</v>
+        <v>2515919767</v>
       </c>
       <c r="AC387" t="inlineStr">
         <is>
@@ -71955,7 +71955,7 @@
         </is>
       </c>
       <c r="AB388" t="n">
-        <v>445935398</v>
+        <v>2437731252</v>
       </c>
       <c r="AC388" t="inlineStr">
         <is>
@@ -72142,7 +72142,7 @@
         </is>
       </c>
       <c r="AB389" t="n">
-        <v>298910373</v>
+        <v>2931933189</v>
       </c>
       <c r="AC389" t="inlineStr">
         <is>
@@ -72329,7 +72329,7 @@
         </is>
       </c>
       <c r="AB390" t="n">
-        <v>-773867260</v>
+        <v>3047261511</v>
       </c>
       <c r="AC390" t="inlineStr">
         <is>
@@ -72516,7 +72516,7 @@
         </is>
       </c>
       <c r="AB391" t="n">
-        <v>1280174271</v>
+        <v>3070072771</v>
       </c>
       <c r="AC391" t="inlineStr">
         <is>
@@ -72703,7 +72703,7 @@
         </is>
       </c>
       <c r="AB392" t="n">
-        <v>1856318641</v>
+        <v>2462876702</v>
       </c>
       <c r="AC392" t="inlineStr">
         <is>
@@ -72890,7 +72890,7 @@
         </is>
       </c>
       <c r="AB393" t="n">
-        <v>1774792270</v>
+        <v>3043943983</v>
       </c>
       <c r="AC393" t="inlineStr">
         <is>
@@ -73077,7 +73077,7 @@
         </is>
       </c>
       <c r="AB394" t="n">
-        <v>711621583</v>
+        <v>798497228</v>
       </c>
       <c r="AC394" t="inlineStr">
         <is>
@@ -73256,7 +73256,7 @@
         </is>
       </c>
       <c r="AB395" t="n">
-        <v>776704175</v>
+        <v>1366719392</v>
       </c>
       <c r="AC395" t="inlineStr">
         <is>
@@ -73435,7 +73435,7 @@
         </is>
       </c>
       <c r="AB396" t="n">
-        <v>2046336501</v>
+        <v>2812321990</v>
       </c>
       <c r="AC396" t="inlineStr">
         <is>
@@ -73614,7 +73614,7 @@
         </is>
       </c>
       <c r="AB397" t="n">
-        <v>1078276917</v>
+        <v>2473127954</v>
       </c>
       <c r="AC397" t="inlineStr">
         <is>
@@ -73801,7 +73801,7 @@
         </is>
       </c>
       <c r="AB398" t="n">
-        <v>1142647</v>
+        <v>18227127</v>
       </c>
       <c r="AC398" t="inlineStr">
         <is>
@@ -73988,7 +73988,7 @@
         </is>
       </c>
       <c r="AB399" t="n">
-        <v>1421737</v>
+        <v>21662622</v>
       </c>
       <c r="AC399" t="inlineStr">
         <is>
@@ -74175,7 +74175,7 @@
         </is>
       </c>
       <c r="AB400" t="n">
-        <v>-1508862</v>
+        <v>21575536</v>
       </c>
       <c r="AC400" t="inlineStr">
         <is>
@@ -74362,7 +74362,7 @@
         </is>
       </c>
       <c r="AB401" t="n">
-        <v>-2199456</v>
+        <v>20683577</v>
       </c>
       <c r="AC401" t="inlineStr">
         <is>
@@ -74549,7 +74549,7 @@
         </is>
       </c>
       <c r="AB402" t="n">
-        <v>-5955935</v>
+        <v>23580165</v>
       </c>
       <c r="AC402" t="inlineStr">
         <is>
@@ -74736,7 +74736,7 @@
         </is>
       </c>
       <c r="AB403" t="n">
-        <v>19502869</v>
+        <v>23706405</v>
       </c>
       <c r="AC403" t="inlineStr">
         <is>
@@ -74923,7 +74923,7 @@
         </is>
       </c>
       <c r="AB404" t="n">
-        <v>19283936</v>
+        <v>20924541</v>
       </c>
       <c r="AC404" t="inlineStr">
         <is>
@@ -75110,7 +75110,7 @@
         </is>
       </c>
       <c r="AB405" t="n">
-        <v>26196820</v>
+        <v>26293643</v>
       </c>
       <c r="AC405" t="inlineStr">
         <is>
@@ -75289,7 +75289,7 @@
         </is>
       </c>
       <c r="AB406" t="n">
-        <v>3581529</v>
+        <v>1004218</v>
       </c>
       <c r="AC406" t="inlineStr">
         <is>
@@ -75468,7 +75468,7 @@
         </is>
       </c>
       <c r="AB407" t="n">
-        <v>3599097</v>
+        <v>7073536</v>
       </c>
       <c r="AC407" t="inlineStr">
         <is>
@@ -75647,7 +75647,7 @@
         </is>
       </c>
       <c r="AB408" t="n">
-        <v>3339280</v>
+        <v>11753459</v>
       </c>
       <c r="AC408" t="inlineStr">
         <is>
@@ -75826,7 +75826,7 @@
         </is>
       </c>
       <c r="AB409" t="n">
-        <v>622007</v>
+        <v>13410166</v>
       </c>
       <c r="AC409" t="inlineStr">
         <is>
@@ -76013,7 +76013,7 @@
         </is>
       </c>
       <c r="AB410" t="n">
-        <v>840020</v>
+        <v>-3305857</v>
       </c>
       <c r="AC410" t="inlineStr">
         <is>
@@ -76202,7 +76202,7 @@
         </is>
       </c>
       <c r="AB411" t="n">
-        <v>-758880</v>
+        <v>-3049287</v>
       </c>
       <c r="AC411" t="inlineStr">
         <is>
@@ -76391,7 +76391,7 @@
         </is>
       </c>
       <c r="AB412" t="n">
-        <v>-1136655</v>
+        <v>-2666080</v>
       </c>
       <c r="AC412" t="inlineStr">
         <is>
@@ -76580,7 +76580,7 @@
         </is>
       </c>
       <c r="AB413" t="n">
-        <v>-220142</v>
+        <v>557263</v>
       </c>
       <c r="AC413" t="inlineStr">
         <is>
@@ -76728,7 +76728,7 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>34.50</t>
+          <t>34.51</t>
         </is>
       </c>
       <c r="S414" t="inlineStr">
@@ -76769,7 +76769,7 @@
         </is>
       </c>
       <c r="AB414" t="n">
-        <v>-528298</v>
+        <v>2055118</v>
       </c>
       <c r="AC414" t="inlineStr">
         <is>
@@ -76958,7 +76958,7 @@
         </is>
       </c>
       <c r="AB415" t="n">
-        <v>-2872332</v>
+        <v>708029</v>
       </c>
       <c r="AC415" t="inlineStr">
         <is>
@@ -77147,7 +77147,7 @@
         </is>
       </c>
       <c r="AB416" t="n">
-        <v>-3925735</v>
+        <v>-184332</v>
       </c>
       <c r="AC416" t="inlineStr">
         <is>
@@ -77336,7 +77336,7 @@
         </is>
       </c>
       <c r="AB417" t="n">
-        <v>-1762109</v>
+        <v>262620</v>
       </c>
       <c r="AC417" t="inlineStr">
         <is>
@@ -77525,7 +77525,7 @@
         </is>
       </c>
       <c r="AB418" t="n">
-        <v>1342907</v>
+        <v>3896158</v>
       </c>
       <c r="AC418" t="inlineStr">
         <is>
@@ -77714,7 +77714,7 @@
         </is>
       </c>
       <c r="AB419" t="n">
-        <v>4703140</v>
+        <v>2825981</v>
       </c>
       <c r="AC419" t="inlineStr">
         <is>
@@ -77895,7 +77895,7 @@
         </is>
       </c>
       <c r="AB420" t="n">
-        <v>4345525</v>
+        <v>6925167</v>
       </c>
       <c r="AC420" t="inlineStr">
         <is>
@@ -78076,7 +78076,7 @@
         </is>
       </c>
       <c r="AB421" t="n">
-        <v>2237454</v>
+        <v>3995599</v>
       </c>
       <c r="AC421" t="inlineStr">
         <is>
@@ -78257,7 +78257,7 @@
         </is>
       </c>
       <c r="AB422" t="n">
-        <v>-39449021</v>
+        <v>108443004</v>
       </c>
       <c r="AC422" t="inlineStr">
         <is>
@@ -78438,7 +78438,7 @@
         </is>
       </c>
       <c r="AB423" t="n">
-        <v>148256521</v>
+        <v>116525603</v>
       </c>
       <c r="AC423" t="inlineStr">
         <is>
@@ -78619,7 +78619,7 @@
         </is>
       </c>
       <c r="AB424" t="n">
-        <v>-92524780</v>
+        <v>-473051071</v>
       </c>
       <c r="AC424" t="inlineStr">
         <is>
@@ -78800,7 +78800,7 @@
         </is>
       </c>
       <c r="AB425" t="n">
-        <v>23940415</v>
+        <v>446673708</v>
       </c>
       <c r="AC425" t="inlineStr">
         <is>
@@ -78981,7 +78981,7 @@
         </is>
       </c>
       <c r="AB426" t="n">
-        <v>-318566578</v>
+        <v>497860801</v>
       </c>
       <c r="AC426" t="inlineStr">
         <is>
@@ -79162,7 +79162,7 @@
         </is>
       </c>
       <c r="AB427" t="n">
-        <v>-18741272</v>
+        <v>509578435</v>
       </c>
       <c r="AC427" t="inlineStr">
         <is>
@@ -79343,7 +79343,7 @@
         </is>
       </c>
       <c r="AB428" t="n">
-        <v>123951610</v>
+        <v>290180157</v>
       </c>
       <c r="AC428" t="inlineStr">
         <is>
@@ -79524,7 +79524,7 @@
         </is>
       </c>
       <c r="AB429" t="n">
-        <v>286835660</v>
+        <v>697296232</v>
       </c>
       <c r="AC429" t="inlineStr">
         <is>
@@ -79705,7 +79705,7 @@
         </is>
       </c>
       <c r="AB430" t="n">
-        <v>-361785019</v>
+        <v>280441592</v>
       </c>
       <c r="AC430" t="inlineStr">
         <is>
@@ -79886,7 +79886,7 @@
         </is>
       </c>
       <c r="AB431" t="n">
-        <v>298781683</v>
+        <v>782608979</v>
       </c>
       <c r="AC431" t="inlineStr">
         <is>
@@ -80067,7 +80067,7 @@
         </is>
       </c>
       <c r="AB432" t="n">
-        <v>529591719</v>
+        <v>1102338335</v>
       </c>
       <c r="AC432" t="inlineStr">
         <is>
@@ -80248,7 +80248,7 @@
         </is>
       </c>
       <c r="AB433" t="n">
-        <v>890104726</v>
+        <v>1346846705</v>
       </c>
       <c r="AC433" t="inlineStr">
         <is>
@@ -80437,7 +80437,7 @@
         </is>
       </c>
       <c r="AB434" t="n">
-        <v>-168221540</v>
+        <v>139277823</v>
       </c>
       <c r="AC434" t="inlineStr">
         <is>
@@ -80626,7 +80626,7 @@
         </is>
       </c>
       <c r="AB435" t="n">
-        <v>-123854995</v>
+        <v>17416760</v>
       </c>
       <c r="AC435" t="inlineStr">
         <is>
@@ -80815,7 +80815,7 @@
         </is>
       </c>
       <c r="AB436" t="n">
-        <v>81032980</v>
+        <v>56337541</v>
       </c>
       <c r="AC436" t="inlineStr">
         <is>
@@ -81004,7 +81004,7 @@
         </is>
       </c>
       <c r="AB437" t="n">
-        <v>245491240</v>
+        <v>465024788</v>
       </c>
       <c r="AC437" t="inlineStr">
         <is>
@@ -81193,7 +81193,7 @@
         </is>
       </c>
       <c r="AB438" t="n">
-        <v>31628517</v>
+        <v>382851713</v>
       </c>
       <c r="AC438" t="inlineStr">
         <is>
@@ -81382,7 +81382,7 @@
         </is>
       </c>
       <c r="AB439" t="n">
-        <v>33982151</v>
+        <v>283182738</v>
       </c>
       <c r="AC439" t="inlineStr">
         <is>
@@ -81571,7 +81571,7 @@
         </is>
       </c>
       <c r="AB440" t="n">
-        <v>62008123</v>
+        <v>178319643</v>
       </c>
       <c r="AC440" t="inlineStr">
         <is>
@@ -81760,7 +81760,7 @@
         </is>
       </c>
       <c r="AB441" t="n">
-        <v>109643238</v>
+        <v>241888761</v>
       </c>
       <c r="AC441" t="inlineStr">
         <is>
@@ -81941,7 +81941,7 @@
         </is>
       </c>
       <c r="AB442" t="n">
-        <v>-58677590</v>
+        <v>102630420</v>
       </c>
       <c r="AC442" t="inlineStr">
         <is>
@@ -82122,7 +82122,7 @@
         </is>
       </c>
       <c r="AB443" t="n">
-        <v>157525425</v>
+        <v>-306243173</v>
       </c>
       <c r="AC443" t="inlineStr">
         <is>
@@ -82303,7 +82303,7 @@
         </is>
       </c>
       <c r="AB444" t="n">
-        <v>241579958</v>
+        <v>-140042301</v>
       </c>
       <c r="AC444" t="inlineStr">
         <is>
@@ -82484,7 +82484,7 @@
         </is>
       </c>
       <c r="AB445" t="n">
-        <v>307878177</v>
+        <v>-115014029</v>
       </c>
       <c r="AC445" t="inlineStr">
         <is>
@@ -82673,7 +82673,7 @@
         </is>
       </c>
       <c r="AB446" t="n">
-        <v>1178698</v>
+        <v>-3512255</v>
       </c>
       <c r="AC446" t="inlineStr">
         <is>
@@ -82862,7 +82862,7 @@
         </is>
       </c>
       <c r="AB447" t="n">
-        <v>392223</v>
+        <v>5580524</v>
       </c>
       <c r="AC447" t="inlineStr">
         <is>
@@ -83051,7 +83051,7 @@
         </is>
       </c>
       <c r="AB448" t="n">
-        <v>113316</v>
+        <v>11790942</v>
       </c>
       <c r="AC448" t="inlineStr">
         <is>
@@ -83240,7 +83240,7 @@
         </is>
       </c>
       <c r="AB449" t="n">
-        <v>1015913</v>
+        <v>11720352</v>
       </c>
       <c r="AC449" t="inlineStr">
         <is>
@@ -83429,7 +83429,7 @@
         </is>
       </c>
       <c r="AB450" t="n">
-        <v>-1024994</v>
+        <v>12830626</v>
       </c>
       <c r="AC450" t="inlineStr">
         <is>
@@ -83618,7 +83618,7 @@
         </is>
       </c>
       <c r="AB451" t="n">
-        <v>-2240924</v>
+        <v>12449736</v>
       </c>
       <c r="AC451" t="inlineStr">
         <is>
@@ -83807,7 +83807,7 @@
         </is>
       </c>
       <c r="AB452" t="n">
-        <v>-5706866</v>
+        <v>12236816</v>
       </c>
       <c r="AC452" t="inlineStr">
         <is>
@@ -83996,7 +83996,7 @@
         </is>
       </c>
       <c r="AB453" t="n">
-        <v>6213295</v>
+        <v>13352336</v>
       </c>
       <c r="AC453" t="inlineStr">
         <is>
@@ -84185,7 +84185,7 @@
         </is>
       </c>
       <c r="AB454" t="n">
-        <v>13918550</v>
+        <v>14890134</v>
       </c>
       <c r="AC454" t="inlineStr">
         <is>
@@ -84374,7 +84374,7 @@
         </is>
       </c>
       <c r="AB455" t="n">
-        <v>16411305</v>
+        <v>8339955</v>
       </c>
       <c r="AC455" t="inlineStr">
         <is>
@@ -84555,7 +84555,7 @@
         </is>
       </c>
       <c r="AB456" t="n">
-        <v>7642325</v>
+        <v>-209598</v>
       </c>
       <c r="AC456" t="inlineStr">
         <is>
@@ -84736,7 +84736,7 @@
         </is>
       </c>
       <c r="AB457" t="n">
-        <v>772110</v>
+        <v>-6611217</v>
       </c>
       <c r="AC457" t="inlineStr">
         <is>
@@ -84884,7 +84884,7 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="S458" t="inlineStr">
@@ -84911,7 +84911,7 @@
       </c>
       <c r="Y458" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z458" t="inlineStr">
@@ -84925,7 +84925,7 @@
         </is>
       </c>
       <c r="AB458" t="n">
-        <v>1401667</v>
+        <v>8872238</v>
       </c>
       <c r="AC458" t="inlineStr">
         <is>
@@ -85066,12 +85066,12 @@
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="S459" t="inlineStr">
@@ -85081,7 +85081,7 @@
       </c>
       <c r="T459" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U459" t="n">
@@ -85096,15 +85096,23 @@
       <c r="X459" t="b">
         <v>0</v>
       </c>
-      <c r="Y459" t="inlineStr"/>
-      <c r="Z459" t="inlineStr"/>
+      <c r="Y459" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="Z459" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA459" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
       <c r="AB459" t="n">
-        <v>4845407</v>
+        <v>9194219</v>
       </c>
       <c r="AC459" t="inlineStr">
         <is>
@@ -85245,22 +85253,22 @@
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="S460" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T460" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U460" t="n">
@@ -85275,15 +85283,23 @@
       <c r="X460" t="b">
         <v>0</v>
       </c>
-      <c r="Y460" t="inlineStr"/>
-      <c r="Z460" t="inlineStr"/>
+      <c r="Y460" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="Z460" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA460" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
       <c r="AB460" t="n">
-        <v>5728016</v>
+        <v>10557836</v>
       </c>
       <c r="AC460" t="inlineStr">
         <is>
@@ -85424,12 +85440,12 @@
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="S461" t="inlineStr">
@@ -85439,7 +85455,7 @@
       </c>
       <c r="T461" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U461" t="n">
@@ -85454,15 +85470,23 @@
       <c r="X461" t="b">
         <v>0</v>
       </c>
-      <c r="Y461" t="inlineStr"/>
-      <c r="Z461" t="inlineStr"/>
+      <c r="Y461" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="Z461" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA461" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
       <c r="AB461" t="n">
-        <v>5699492</v>
+        <v>9448150</v>
       </c>
       <c r="AC461" t="inlineStr">
         <is>
@@ -85603,22 +85627,22 @@
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="S462" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="T462" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U462" t="n">
@@ -85633,15 +85657,23 @@
       <c r="X462" t="b">
         <v>0</v>
       </c>
-      <c r="Y462" t="inlineStr"/>
-      <c r="Z462" t="inlineStr"/>
+      <c r="Y462" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="Z462" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA462" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
       <c r="AB462" t="n">
-        <v>2282783</v>
+        <v>5772358</v>
       </c>
       <c r="AC462" t="inlineStr">
         <is>
@@ -85782,22 +85814,22 @@
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>231.24</t>
         </is>
       </c>
       <c r="S463" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T463" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U463" t="n">
@@ -85812,15 +85844,23 @@
       <c r="X463" t="b">
         <v>0</v>
       </c>
-      <c r="Y463" t="inlineStr"/>
-      <c r="Z463" t="inlineStr"/>
+      <c r="Y463" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="Z463" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA463" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
       <c r="AB463" t="n">
-        <v>2492824</v>
+        <v>5306379</v>
       </c>
       <c r="AC463" t="inlineStr">
         <is>
@@ -85961,22 +86001,22 @@
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="S464" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T464" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="U464" t="n">
@@ -85991,15 +86031,23 @@
       <c r="X464" t="b">
         <v>0</v>
       </c>
-      <c r="Y464" t="inlineStr"/>
-      <c r="Z464" t="inlineStr"/>
+      <c r="Y464" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="Z464" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA464" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
       <c r="AB464" t="n">
-        <v>1771079</v>
+        <v>3719250</v>
       </c>
       <c r="AC464" t="inlineStr">
         <is>
@@ -86140,22 +86188,22 @@
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="S465" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T465" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U465" t="n">
@@ -86170,15 +86218,23 @@
       <c r="X465" t="b">
         <v>0</v>
       </c>
-      <c r="Y465" t="inlineStr"/>
-      <c r="Z465" t="inlineStr"/>
+      <c r="Y465" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="Z465" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA465" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
       <c r="AB465" t="n">
-        <v>2066029</v>
+        <v>3329394</v>
       </c>
       <c r="AC465" t="inlineStr">
         <is>
@@ -86319,22 +86375,22 @@
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S466" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T466" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U466" t="n">
@@ -86347,17 +86403,25 @@
         <v>63</v>
       </c>
       <c r="X466" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y466" t="inlineStr"/>
-      <c r="Z466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y466" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="Z466" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA466" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
       <c r="AB466" t="n">
-        <v>2336996</v>
+        <v>2653168</v>
       </c>
       <c r="AC466" t="inlineStr">
         <is>
@@ -86498,22 +86562,22 @@
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="S467" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T467" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U467" t="n">
@@ -86526,17 +86590,25 @@
         <v>56</v>
       </c>
       <c r="X467" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y467" t="inlineStr"/>
-      <c r="Z467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y467" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="Z467" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA467" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
       <c r="AB467" t="n">
-        <v>1977579</v>
+        <v>1708759</v>
       </c>
       <c r="AC467" t="inlineStr">
         <is>
@@ -86677,22 +86749,22 @@
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="S468" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T468" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U468" t="n">
@@ -86705,17 +86777,25 @@
         <v>43</v>
       </c>
       <c r="X468" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y468" t="inlineStr"/>
-      <c r="Z468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y468" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="Z468" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA468" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
       <c r="AB468" t="n">
-        <v>1423546</v>
+        <v>1120093</v>
       </c>
       <c r="AC468" t="inlineStr">
         <is>
@@ -86856,22 +86936,22 @@
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="S469" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T469" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U469" t="n">
@@ -86894,7 +86974,7 @@
         </is>
       </c>
       <c r="AB469" t="n">
-        <v>476559</v>
+        <v>299322</v>
       </c>
       <c r="AC469" t="inlineStr">
         <is>
@@ -87073,7 +87153,7 @@
         </is>
       </c>
       <c r="AB470" t="n">
-        <v>8058353</v>
+        <v>5923674</v>
       </c>
       <c r="AC470" t="inlineStr">
         <is>
@@ -87254,7 +87334,7 @@
         </is>
       </c>
       <c r="AB471" t="n">
-        <v>6605927</v>
+        <v>5288682</v>
       </c>
       <c r="AC471" t="inlineStr">
         <is>
@@ -87435,7 +87515,7 @@
         </is>
       </c>
       <c r="AB472" t="n">
-        <v>-495583</v>
+        <v>3990354</v>
       </c>
       <c r="AC472" t="inlineStr">
         <is>
@@ -87616,7 +87696,7 @@
         </is>
       </c>
       <c r="AB473" t="n">
-        <v>-460724</v>
+        <v>6033680</v>
       </c>
       <c r="AC473" t="inlineStr">
         <is>
@@ -87797,7 +87877,7 @@
         </is>
       </c>
       <c r="AB474" t="n">
-        <v>-3256944</v>
+        <v>7236804</v>
       </c>
       <c r="AC474" t="inlineStr">
         <is>
@@ -87978,7 +88058,7 @@
         </is>
       </c>
       <c r="AB475" t="n">
-        <v>-2374541</v>
+        <v>9293399</v>
       </c>
       <c r="AC475" t="inlineStr">
         <is>
@@ -88159,7 +88239,7 @@
         </is>
       </c>
       <c r="AB476" t="n">
-        <v>-1673955</v>
+        <v>6238130</v>
       </c>
       <c r="AC476" t="inlineStr">
         <is>
@@ -88340,7 +88420,7 @@
         </is>
       </c>
       <c r="AB477" t="n">
-        <v>1939699</v>
+        <v>7153915</v>
       </c>
       <c r="AC477" t="inlineStr">
         <is>
@@ -88521,7 +88601,7 @@
         </is>
       </c>
       <c r="AB478" t="n">
-        <v>6860478</v>
+        <v>8209484</v>
       </c>
       <c r="AC478" t="inlineStr">
         <is>
@@ -88702,7 +88782,7 @@
         </is>
       </c>
       <c r="AB479" t="n">
-        <v>8168359</v>
+        <v>12830572</v>
       </c>
       <c r="AC479" t="inlineStr">
         <is>
@@ -88883,7 +88963,7 @@
         </is>
       </c>
       <c r="AB480" t="n">
-        <v>8554049</v>
+        <v>19633522</v>
       </c>
       <c r="AC480" t="inlineStr">
         <is>
@@ -89064,7 +89144,7 @@
         </is>
       </c>
       <c r="AB481" t="n">
-        <v>4807462</v>
+        <v>22058609</v>
       </c>
       <c r="AC481" t="inlineStr">
         <is>
@@ -89253,7 +89333,7 @@
         </is>
       </c>
       <c r="AB482" t="n">
-        <v>-1501069</v>
+        <v>4537272</v>
       </c>
       <c r="AC482" t="inlineStr">
         <is>
@@ -89440,7 +89520,7 @@
         </is>
       </c>
       <c r="AB483" t="n">
-        <v>-228003</v>
+        <v>4911512</v>
       </c>
       <c r="AC483" t="inlineStr">
         <is>
@@ -89627,7 +89707,7 @@
         </is>
       </c>
       <c r="AB484" t="n">
-        <v>1759958</v>
+        <v>7988438</v>
       </c>
       <c r="AC484" t="inlineStr">
         <is>
@@ -89814,7 +89894,7 @@
         </is>
       </c>
       <c r="AB485" t="n">
-        <v>1834776</v>
+        <v>8191836</v>
       </c>
       <c r="AC485" t="inlineStr">
         <is>
@@ -90001,7 +90081,7 @@
         </is>
       </c>
       <c r="AB486" t="n">
-        <v>-4207690</v>
+        <v>6397198</v>
       </c>
       <c r="AC486" t="inlineStr">
         <is>
@@ -90180,7 +90260,7 @@
         </is>
       </c>
       <c r="AB487" t="n">
-        <v>-809567</v>
+        <v>6234611</v>
       </c>
       <c r="AC487" t="inlineStr">
         <is>
@@ -90359,7 +90439,7 @@
         </is>
       </c>
       <c r="AB488" t="n">
-        <v>4203565</v>
+        <v>6137094</v>
       </c>
       <c r="AC488" t="inlineStr">
         <is>
@@ -90538,7 +90618,7 @@
         </is>
       </c>
       <c r="AB489" t="n">
-        <v>9347205</v>
+        <v>5622422</v>
       </c>
       <c r="AC489" t="inlineStr">
         <is>
@@ -90717,7 +90797,7 @@
         </is>
       </c>
       <c r="AB490" t="n">
-        <v>7038047</v>
+        <v>9200</v>
       </c>
       <c r="AC490" t="inlineStr">
         <is>
@@ -90896,7 +90976,7 @@
         </is>
       </c>
       <c r="AB491" t="n">
-        <v>2153495</v>
+        <v>-5060371</v>
       </c>
       <c r="AC491" t="inlineStr">
         <is>
@@ -91075,7 +91155,7 @@
         </is>
       </c>
       <c r="AB492" t="n">
-        <v>1257683</v>
+        <v>-2491814</v>
       </c>
       <c r="AC492" t="inlineStr">
         <is>
@@ -91254,7 +91334,7 @@
         </is>
       </c>
       <c r="AB493" t="n">
-        <v>6131</v>
+        <v>-6208093</v>
       </c>
       <c r="AC493" t="inlineStr">
         <is>
@@ -91433,7 +91513,7 @@
         </is>
       </c>
       <c r="AB494" t="n">
-        <v>601639518</v>
+        <v>244262893</v>
       </c>
       <c r="AC494" t="inlineStr">
         <is>
@@ -91614,7 +91694,7 @@
         </is>
       </c>
       <c r="AB495" t="n">
-        <v>383809112</v>
+        <v>-851089510</v>
       </c>
       <c r="AC495" t="inlineStr">
         <is>
@@ -91795,7 +91875,7 @@
         </is>
       </c>
       <c r="AB496" t="n">
-        <v>414813933</v>
+        <v>-1233130848</v>
       </c>
       <c r="AC496" t="inlineStr">
         <is>
@@ -91976,7 +92056,7 @@
         </is>
       </c>
       <c r="AB497" t="n">
-        <v>442853832</v>
+        <v>-240059179</v>
       </c>
       <c r="AC497" t="inlineStr">
         <is>
@@ -92157,7 +92237,7 @@
         </is>
       </c>
       <c r="AB498" t="n">
-        <v>-1085185356</v>
+        <v>-1511866106</v>
       </c>
       <c r="AC498" t="inlineStr">
         <is>
@@ -92338,7 +92418,7 @@
         </is>
       </c>
       <c r="AB499" t="n">
-        <v>-1218303721</v>
+        <v>-1650773493</v>
       </c>
       <c r="AC499" t="inlineStr">
         <is>
@@ -92519,7 +92599,7 @@
         </is>
       </c>
       <c r="AB500" t="n">
-        <v>-800230457</v>
+        <v>-2862749073</v>
       </c>
       <c r="AC500" t="inlineStr">
         <is>
@@ -92700,7 +92780,7 @@
         </is>
       </c>
       <c r="AB501" t="n">
-        <v>-149713266</v>
+        <v>-2473248968</v>
       </c>
       <c r="AC501" t="inlineStr">
         <is>
@@ -92881,7 +92961,7 @@
         </is>
       </c>
       <c r="AB502" t="n">
-        <v>-429641060</v>
+        <v>-395746214</v>
       </c>
       <c r="AC502" t="inlineStr">
         <is>
@@ -93062,7 +93142,7 @@
         </is>
       </c>
       <c r="AB503" t="n">
-        <v>117317446</v>
+        <v>-3156631314</v>
       </c>
       <c r="AC503" t="inlineStr">
         <is>
@@ -93243,7 +93323,7 @@
         </is>
       </c>
       <c r="AB504" t="n">
-        <v>-276967484</v>
+        <v>-1102707800</v>
       </c>
       <c r="AC504" t="inlineStr">
         <is>
@@ -93424,7 +93504,7 @@
         </is>
       </c>
       <c r="AB505" t="n">
-        <v>-2828712</v>
+        <v>345714307</v>
       </c>
       <c r="AC505" t="inlineStr">
         <is>
